--- a/outcome/appendix/forecast/Hepatitis C.xlsx
+++ b/outcome/appendix/forecast/Hepatitis C.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>21345.4697788749</v>
+        <v>21345.47030966</v>
       </c>
       <c r="C2" t="n">
-        <v>19607.7223882499</v>
+        <v>19607.7229924906</v>
       </c>
       <c r="D2" t="n">
-        <v>18741.4563173254</v>
+        <v>18741.4569545174</v>
       </c>
       <c r="E2" t="n">
-        <v>23223.9685075815</v>
+        <v>23223.9689487452</v>
       </c>
       <c r="F2" t="n">
-        <v>24278.8642000858</v>
+        <v>24278.86458661</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>17287</v>
       </c>
       <c r="I2" t="n">
-        <v>4058.46977887487</v>
+        <v>4058.47030965999</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>18990.0967267859</v>
+        <v>18990.0965239853</v>
       </c>
       <c r="C3" t="n">
-        <v>17422.6285580052</v>
+        <v>17422.6283746381</v>
       </c>
       <c r="D3" t="n">
-        <v>16641.9309426365</v>
+        <v>16641.9307688624</v>
       </c>
       <c r="E3" t="n">
-        <v>20686.432810458</v>
+        <v>20686.4325863867</v>
       </c>
       <c r="F3" t="n">
-        <v>21639.8388194833</v>
+        <v>21639.8385833558</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>9068</v>
       </c>
       <c r="I3" t="n">
-        <v>9922.09672678585</v>
+        <v>9922.09652398532</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>25951.1981833403</v>
+        <v>25951.1983452087</v>
       </c>
       <c r="C4" t="n">
-        <v>23752.7036780024</v>
+        <v>23752.7030039299</v>
       </c>
       <c r="D4" t="n">
-        <v>22659.5631148719</v>
+        <v>22659.5620520796</v>
       </c>
       <c r="E4" t="n">
-        <v>28335.6062996288</v>
+        <v>28335.6074435482</v>
       </c>
       <c r="F4" t="n">
-        <v>29677.9204608204</v>
+        <v>29677.922189474</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16718</v>
       </c>
       <c r="I4" t="n">
-        <v>9233.19818334026</v>
+        <v>9233.19834520866</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>23492.788670617</v>
+        <v>23492.7926779672</v>
       </c>
       <c r="C5" t="n">
-        <v>21308.2362577508</v>
+        <v>21308.2391514846</v>
       </c>
       <c r="D5" t="n">
-        <v>20229.0268808699</v>
+        <v>20229.0292511941</v>
       </c>
       <c r="E5" t="n">
-        <v>25881.8040538511</v>
+        <v>25881.8093548998</v>
       </c>
       <c r="F5" t="n">
-        <v>27235.1051262593</v>
+        <v>27235.1111923554</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>20179</v>
       </c>
       <c r="I5" t="n">
-        <v>3313.78867061703</v>
+        <v>3313.79267796716</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23315.5809194307</v>
+        <v>23315.5767304646</v>
       </c>
       <c r="C6" t="n">
-        <v>21098.3781101015</v>
+        <v>21098.3740477307</v>
       </c>
       <c r="D6" t="n">
-        <v>20004.8526176229</v>
+        <v>20004.848627727</v>
       </c>
       <c r="E6" t="n">
-        <v>25745.4568009328</v>
+        <v>25745.4525017995</v>
       </c>
       <c r="F6" t="n">
-        <v>27124.0961130286</v>
+        <v>27124.0917635349</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>19821</v>
       </c>
       <c r="I6" t="n">
-        <v>3494.58091943071</v>
+        <v>3494.57673046461</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>22018.0515178348</v>
+        <v>22018.0530148886</v>
       </c>
       <c r="C7" t="n">
-        <v>19860.23988837</v>
+        <v>19860.2404285733</v>
       </c>
       <c r="D7" t="n">
-        <v>18798.4438959568</v>
+        <v>18798.4439962013</v>
       </c>
       <c r="E7" t="n">
-        <v>24389.7939992281</v>
+        <v>24389.796636293</v>
       </c>
       <c r="F7" t="n">
-        <v>25738.4130646737</v>
+        <v>25738.4163875627</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>20367</v>
       </c>
       <c r="I7" t="n">
-        <v>1651.05151783478</v>
+        <v>1651.05301488859</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>22400.793947481</v>
+        <v>22400.7972313025</v>
       </c>
       <c r="C8" t="n">
-        <v>20106.9989037655</v>
+        <v>20107.0011614673</v>
       </c>
       <c r="D8" t="n">
-        <v>18982.215216909</v>
+        <v>18982.2169989734</v>
       </c>
       <c r="E8" t="n">
-        <v>24933.2658084531</v>
+        <v>24933.2703044308</v>
       </c>
       <c r="F8" t="n">
-        <v>26378.0907626141</v>
+        <v>26378.095983977</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>20520</v>
       </c>
       <c r="I8" t="n">
-        <v>1880.79394748104</v>
+        <v>1880.79723130254</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>22236.1867271269</v>
+        <v>22236.1847723955</v>
       </c>
       <c r="C9" t="n">
-        <v>19899.2439670362</v>
+        <v>19899.2417160511</v>
       </c>
       <c r="D9" t="n">
-        <v>18755.7615141433</v>
+        <v>18755.7591387727</v>
       </c>
       <c r="E9" t="n">
-        <v>24823.3915436923</v>
+        <v>24823.3899764303</v>
       </c>
       <c r="F9" t="n">
-        <v>26302.4770821014</v>
+        <v>26302.4757617764</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>20520</v>
       </c>
       <c r="I9" t="n">
-        <v>1716.18672712688</v>
+        <v>1716.18477239548</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>21168.2787943398</v>
+        <v>21168.2797506866</v>
       </c>
       <c r="C10" t="n">
-        <v>18879.1239515545</v>
+        <v>18879.1241209189</v>
       </c>
       <c r="D10" t="n">
-        <v>17761.7457275539</v>
+        <v>17761.7455416621</v>
       </c>
       <c r="E10" t="n">
-        <v>23710.4659182131</v>
+        <v>23710.4678324577</v>
       </c>
       <c r="F10" t="n">
-        <v>25167.1941367049</v>
+        <v>25167.1966357712</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>21538</v>
       </c>
       <c r="I10" t="n">
-        <v>-369.721205660233</v>
+        <v>-369.72024931341</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>19880.2689264268</v>
+        <v>19880.2705226378</v>
       </c>
       <c r="C11" t="n">
-        <v>17656.2407257079</v>
+        <v>17656.2414680659</v>
       </c>
       <c r="D11" t="n">
-        <v>16573.8965468866</v>
+        <v>16573.8969032786</v>
       </c>
       <c r="E11" t="n">
-        <v>22359.5860054385</v>
+        <v>22359.5886399429</v>
       </c>
       <c r="F11" t="n">
-        <v>23784.3476296921</v>
+        <v>23784.3508979324</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>20067</v>
       </c>
       <c r="I11" t="n">
-        <v>-186.731073573217</v>
+        <v>-186.729477362202</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>22255.2008950183</v>
+        <v>22255.1978797098</v>
       </c>
       <c r="C12" t="n">
-        <v>19726.2903254872</v>
+        <v>19726.2869808374</v>
       </c>
       <c r="D12" t="n">
-        <v>18497.3163427067</v>
+        <v>18497.3128679192</v>
       </c>
       <c r="E12" t="n">
-        <v>25079.5017085177</v>
+        <v>25079.4991486975</v>
       </c>
       <c r="F12" t="n">
-        <v>26704.7039428061</v>
+        <v>26704.7016827324</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>20801</v>
       </c>
       <c r="I12" t="n">
-        <v>1454.20089501827</v>
+        <v>1454.19787970981</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>22262.9585283629</v>
+        <v>22262.9597821615</v>
       </c>
       <c r="C13" t="n">
-        <v>19676.2555619013</v>
+        <v>19676.2559287763</v>
       </c>
       <c r="D13" t="n">
-        <v>18421.7880727937</v>
+        <v>18421.7880433174</v>
       </c>
       <c r="E13" t="n">
-        <v>25159.4148919096</v>
+        <v>25159.4172382546</v>
       </c>
       <c r="F13" t="n">
-        <v>26829.4128932748</v>
+        <v>26829.4159122855</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>20438</v>
       </c>
       <c r="I13" t="n">
-        <v>1824.95852836291</v>
+        <v>1824.95978216153</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22183.3842091651</v>
+        <v>22183.3832944909</v>
       </c>
       <c r="C14" t="n">
-        <v>19565.0042782527</v>
+        <v>19565.0025100853</v>
       </c>
       <c r="D14" t="n">
-        <v>18297.0697111266</v>
+        <v>18297.0675742068</v>
       </c>
       <c r="E14" t="n">
-        <v>25120.8970848623</v>
+        <v>25120.8972592045</v>
       </c>
       <c r="F14" t="n">
-        <v>26816.9720320581</v>
+        <v>26816.9728917719</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>18258</v>
       </c>
       <c r="I14" t="n">
-        <v>3925.38420916509</v>
+        <v>3925.38329449091</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>18520.5906747218</v>
+        <v>18520.5940767925</v>
       </c>
       <c r="C15" t="n">
-        <v>16254.6979599262</v>
+        <v>16254.7002119053</v>
       </c>
       <c r="D15" t="n">
-        <v>15161.2915358108</v>
+        <v>15161.2932681276</v>
       </c>
       <c r="E15" t="n">
-        <v>21074.0245082363</v>
+        <v>21074.0293113169</v>
       </c>
       <c r="F15" t="n">
-        <v>22553.2478601418</v>
+        <v>22553.253520119</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>14714</v>
       </c>
       <c r="I15" t="n">
-        <v>3806.59067472185</v>
+        <v>3806.59407679249</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>26893.5972168859</v>
+        <v>26893.6004362768</v>
       </c>
       <c r="C16" t="n">
-        <v>23636.7540376008</v>
+        <v>23636.7557270844</v>
       </c>
       <c r="D16" t="n">
-        <v>22063.5721188092</v>
+        <v>22063.5731235588</v>
       </c>
       <c r="E16" t="n">
-        <v>30559.0041797404</v>
+        <v>30559.0092819582</v>
       </c>
       <c r="F16" t="n">
-        <v>32680.3641438445</v>
+        <v>32680.3704051518</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>23776</v>
       </c>
       <c r="I16" t="n">
-        <v>3117.59721688593</v>
+        <v>3117.60043627682</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>24137.4095555689</v>
+        <v>24137.4102374515</v>
       </c>
       <c r="C17" t="n">
-        <v>21140.9464578808</v>
+        <v>21140.9458885496</v>
       </c>
       <c r="D17" t="n">
-        <v>19697.1225345727</v>
+        <v>19697.1214193618</v>
       </c>
       <c r="E17" t="n">
-        <v>27520.4314617557</v>
+        <v>27520.433726217</v>
       </c>
       <c r="F17" t="n">
-        <v>29482.9665199963</v>
+        <v>29482.9697759142</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>22613</v>
       </c>
       <c r="I17" t="n">
-        <v>1524.40955556893</v>
+        <v>1524.41023745154</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>24300.1455896238</v>
+        <v>24300.1463281836</v>
       </c>
       <c r="C18" t="n">
-        <v>21232.074550566</v>
+        <v>21232.0739565262</v>
       </c>
       <c r="D18" t="n">
-        <v>19756.3030591696</v>
+        <v>19756.3018857952</v>
       </c>
       <c r="E18" t="n">
-        <v>27771.6467479465</v>
+        <v>27771.6491787791</v>
       </c>
       <c r="F18" t="n">
-        <v>29788.8113254702</v>
+        <v>29788.814819354</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>21254</v>
       </c>
       <c r="I18" t="n">
-        <v>3046.1455896238</v>
+        <v>3046.14632818356</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>22681.3580543521</v>
+        <v>22681.3590127022</v>
       </c>
       <c r="C19" t="n">
-        <v>19755.2120591544</v>
+        <v>19755.2116970963</v>
       </c>
       <c r="D19" t="n">
-        <v>18350.885047924</v>
+        <v>18350.8841130877</v>
       </c>
       <c r="E19" t="n">
-        <v>26001.7975430389</v>
+        <v>26001.8001827658</v>
       </c>
       <c r="F19" t="n">
-        <v>27935.312330705</v>
+        <v>27935.3160287551</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>20937</v>
       </c>
       <c r="I19" t="n">
-        <v>1744.35805435213</v>
+        <v>1744.35901270223</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>23613.294206158</v>
+        <v>23613.2910786309</v>
       </c>
       <c r="C20" t="n">
-        <v>20529.0898134002</v>
+        <v>20529.0857230597</v>
       </c>
       <c r="D20" t="n">
-        <v>19050.8569701271</v>
+        <v>19050.8524890395</v>
       </c>
       <c r="E20" t="n">
-        <v>27118.9577350267</v>
+        <v>27118.9559149428</v>
       </c>
       <c r="F20" t="n">
-        <v>29162.8732286981</v>
+        <v>29162.8722632174</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>22940</v>
       </c>
       <c r="I20" t="n">
-        <v>673.294206158014</v>
+        <v>673.291078630868</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>23472.9810583316</v>
+        <v>23472.9785128908</v>
       </c>
       <c r="C21" t="n">
-        <v>20358.3478531994</v>
+        <v>20358.3442231216</v>
       </c>
       <c r="D21" t="n">
-        <v>18868.0863904357</v>
+        <v>18868.0823159854</v>
       </c>
       <c r="E21" t="n">
-        <v>27020.9439721218</v>
+        <v>27020.942887715</v>
       </c>
       <c r="F21" t="n">
-        <v>29092.8687970786</v>
+        <v>29092.8686637006</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>20001</v>
       </c>
       <c r="I21" t="n">
-        <v>3471.98105833158</v>
+        <v>3471.97851289078</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>21829.327659402</v>
+        <v>21829.3282310957</v>
       </c>
       <c r="C22" t="n">
-        <v>18873.8193082544</v>
+        <v>18873.8184564371</v>
       </c>
       <c r="D22" t="n">
-        <v>17462.8520997574</v>
+        <v>17462.8506404754</v>
       </c>
       <c r="E22" t="n">
-        <v>25205.5935946661</v>
+        <v>25205.5960115171</v>
       </c>
       <c r="F22" t="n">
-        <v>27181.4104421812</v>
+        <v>27181.4140339715</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>20125</v>
       </c>
       <c r="I22" t="n">
-        <v>1704.32765940204</v>
+        <v>1704.32823109572</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20960.6127519809</v>
+        <v>20960.6120785277</v>
       </c>
       <c r="C23" t="n">
-        <v>18073.6637026633</v>
+        <v>18073.6617549311</v>
       </c>
       <c r="D23" t="n">
-        <v>16698.1022351794</v>
+        <v>16698.0997548768</v>
       </c>
       <c r="E23" t="n">
-        <v>24266.6979193719</v>
+        <v>24266.6989325621</v>
       </c>
       <c r="F23" t="n">
-        <v>26204.9869891942</v>
+        <v>26204.9890901313</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>19157</v>
       </c>
       <c r="I23" t="n">
-        <v>1803.61275198086</v>
+        <v>1803.61207852766</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23221.0876478231</v>
+        <v>23221.0886373164</v>
       </c>
       <c r="C24" t="n">
-        <v>20002.9175849948</v>
+        <v>20002.916890661</v>
       </c>
       <c r="D24" t="n">
-        <v>18470.629087709</v>
+        <v>18470.6276765983</v>
       </c>
       <c r="E24" t="n">
-        <v>26909.8116341455</v>
+        <v>26909.8148129815</v>
       </c>
       <c r="F24" t="n">
-        <v>29073.8835120364</v>
+        <v>29073.8880881529</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>19858</v>
       </c>
       <c r="I24" t="n">
-        <v>3363.08764782306</v>
+        <v>3363.08863731639</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>22524.951378364</v>
+        <v>22524.9553586732</v>
       </c>
       <c r="C25" t="n">
-        <v>19353.9590536477</v>
+        <v>19353.9609531493</v>
       </c>
       <c r="D25" t="n">
-        <v>17846.8855928437</v>
+        <v>17846.8865883236</v>
       </c>
       <c r="E25" t="n">
-        <v>26168.0145395931</v>
+        <v>26168.0211706271</v>
       </c>
       <c r="F25" t="n">
-        <v>28308.9672806305</v>
+        <v>28308.9755827945</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>20895</v>
       </c>
       <c r="I25" t="n">
-        <v>1629.951378364</v>
+        <v>1629.9553586732</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23095.3451115413</v>
+        <v>23095.3461518818</v>
       </c>
       <c r="C26" t="n">
-        <v>19771.5928594936</v>
+        <v>19771.5927744825</v>
       </c>
       <c r="D26" t="n">
-        <v>18196.0577688101</v>
+        <v>18196.0572061446</v>
       </c>
       <c r="E26" t="n">
-        <v>26926.6262671913</v>
+        <v>26926.6287765098</v>
       </c>
       <c r="F26" t="n">
-        <v>29183.7458508287</v>
+        <v>29183.7493005487</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>18704</v>
       </c>
       <c r="I26" t="n">
-        <v>4391.34511154126</v>
+        <v>4391.34615188177</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>19193.2021916298</v>
+        <v>19193.2026972825</v>
       </c>
       <c r="C27" t="n">
-        <v>16360.6866205886</v>
+        <v>16360.6861507122</v>
       </c>
       <c r="D27" t="n">
-        <v>15022.1370508097</v>
+        <v>15022.1361728506</v>
       </c>
       <c r="E27" t="n">
-        <v>22470.9861715813</v>
+        <v>22470.987970063</v>
       </c>
       <c r="F27" t="n">
-        <v>24407.606243546</v>
+        <v>24407.6088775796</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>16733</v>
       </c>
       <c r="I27" t="n">
-        <v>2460.20219162982</v>
+        <v>2460.20269728253</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>27239.9211902213</v>
+        <v>27239.9237733108</v>
       </c>
       <c r="C28" t="n">
-        <v>23263.1585225769</v>
+        <v>23263.1595834707</v>
       </c>
       <c r="D28" t="n">
-        <v>21381.3631156322</v>
+        <v>21381.3635227141</v>
       </c>
       <c r="E28" t="n">
-        <v>31834.048476537</v>
+        <v>31834.0530235747</v>
       </c>
       <c r="F28" t="n">
-        <v>34545.0088252918</v>
+        <v>34545.0146210173</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>21722</v>
       </c>
       <c r="I28" t="n">
-        <v>5517.92119022128</v>
+        <v>5517.92377331082</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>25093.3600146305</v>
+        <v>25093.3620306245</v>
       </c>
       <c r="C29" t="n">
-        <v>21348.685675775</v>
+        <v>21348.6865262401</v>
       </c>
       <c r="D29" t="n">
-        <v>19581.5423045904</v>
+        <v>19581.5426564322</v>
       </c>
       <c r="E29" t="n">
-        <v>29434.3283550566</v>
+        <v>29434.3318818551</v>
       </c>
       <c r="F29" t="n">
-        <v>32002.4558381365</v>
+        <v>32002.4603286347</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>17712</v>
       </c>
       <c r="I29" t="n">
-        <v>7381.36001463049</v>
+        <v>7381.36203062445</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>24980.1757923885</v>
+        <v>24980.1771296313</v>
       </c>
       <c r="C30" t="n">
-        <v>21201.0347691642</v>
+        <v>21201.0351433126</v>
       </c>
       <c r="D30" t="n">
-        <v>19420.7226930541</v>
+        <v>19420.7226593912</v>
       </c>
       <c r="E30" t="n">
-        <v>29370.7351301994</v>
+        <v>29370.7377294119</v>
       </c>
       <c r="F30" t="n">
-        <v>31972.4262034087</v>
+        <v>31972.4296131195</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>18720</v>
       </c>
       <c r="I30" t="n">
-        <v>6260.17579238851</v>
+        <v>6260.17712963129</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>23432.2743613695</v>
+        <v>23432.2761190632</v>
       </c>
       <c r="C31" t="n">
-        <v>19823.1872162713</v>
+        <v>19823.1880176302</v>
       </c>
       <c r="D31" t="n">
-        <v>18126.9260872241</v>
+        <v>18126.9264812684</v>
       </c>
       <c r="E31" t="n">
-        <v>27637.5788625585</v>
+        <v>27637.5818666018</v>
       </c>
       <c r="F31" t="n">
-        <v>30134.9023944783</v>
+        <v>30134.9061966213</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>20925</v>
       </c>
       <c r="I31" t="n">
-        <v>2507.27436136951</v>
+        <v>2507.27611906325</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>25058.2322298115</v>
+        <v>25058.2341833882</v>
       </c>
       <c r="C32" t="n">
-        <v>21164.6952058645</v>
+        <v>21164.6962683201</v>
       </c>
       <c r="D32" t="n">
-        <v>19336.8542991464</v>
+        <v>19336.8549797344</v>
       </c>
       <c r="E32" t="n">
-        <v>29601.5954605359</v>
+        <v>29601.5985684429</v>
       </c>
       <c r="F32" t="n">
-        <v>32302.5836249898</v>
+        <v>32302.5874694255</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>21867</v>
       </c>
       <c r="I32" t="n">
-        <v>3191.23222981154</v>
+        <v>3191.23418338819</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>24583.3863080635</v>
+        <v>24583.3874153773</v>
       </c>
       <c r="C33" t="n">
-        <v>20709.721785694</v>
+        <v>20709.7222303278</v>
       </c>
       <c r="D33" t="n">
-        <v>18894.6055335925</v>
+        <v>18894.6056984735</v>
       </c>
       <c r="E33" t="n">
-        <v>29114.237374208</v>
+        <v>29114.2393535494</v>
       </c>
       <c r="F33" t="n">
-        <v>31812.4857722059</v>
+        <v>31812.4883134911</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>21891</v>
       </c>
       <c r="I33" t="n">
-        <v>2692.38630806347</v>
+        <v>2692.38741537728</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>22644.2116020549</v>
+        <v>22644.2131974424</v>
       </c>
       <c r="C34" t="n">
-        <v>19010.1015509894</v>
+        <v>19010.1025015214</v>
       </c>
       <c r="D34" t="n">
-        <v>17311.474832657</v>
+        <v>17311.4755067662</v>
       </c>
       <c r="E34" t="n">
-        <v>26908.2551930487</v>
+        <v>26908.2576241871</v>
       </c>
       <c r="F34" t="n">
-        <v>29453.5148970661</v>
+        <v>29453.5178619279</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>18740</v>
       </c>
       <c r="I34" t="n">
-        <v>3904.21160205487</v>
+        <v>3904.21319744238</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21825.0166739324</v>
+        <v>21825.0187793825</v>
       </c>
       <c r="C35" t="n">
-        <v>18269.6818989827</v>
+        <v>18269.683376147</v>
       </c>
       <c r="D35" t="n">
-        <v>16611.3155203907</v>
+        <v>16611.3167231294</v>
       </c>
       <c r="E35" t="n">
-        <v>26007.5425147493</v>
+        <v>26007.5454185577</v>
       </c>
       <c r="F35" t="n">
-        <v>28508.960096482</v>
+        <v>28508.963503891</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>16020</v>
       </c>
       <c r="I35" t="n">
-        <v>5805.01667393242</v>
+        <v>5805.01877938252</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23666.3184534089</v>
+        <v>23666.3197658909</v>
       </c>
       <c r="C36" t="n">
-        <v>19788.6137867908</v>
+        <v>19788.6146533816</v>
       </c>
       <c r="D36" t="n">
-        <v>17981.3528767273</v>
+        <v>17981.3535506763</v>
       </c>
       <c r="E36" t="n">
-        <v>28232.7695812065</v>
+        <v>28232.771467085</v>
       </c>
       <c r="F36" t="n">
-        <v>30965.8680355264</v>
+        <v>30965.870285914</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>15057</v>
       </c>
       <c r="I36" t="n">
-        <v>8609.31845340891</v>
+        <v>8609.31976589088</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>22976.7272231164</v>
+        <v>22976.7292188822</v>
       </c>
       <c r="C37" t="n">
-        <v>19160.5949885284</v>
+        <v>19160.5965015166</v>
       </c>
       <c r="D37" t="n">
-        <v>17385.4581951568</v>
+        <v>17385.4594936645</v>
       </c>
       <c r="E37" t="n">
-        <v>27481.6030051126</v>
+        <v>27481.6056030421</v>
       </c>
       <c r="F37" t="n">
-        <v>30182.6821120774</v>
+        <v>30182.6850853115</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11050</v>
       </c>
       <c r="I37" t="n">
-        <v>11926.7272231164</v>
+        <v>11926.7292188822</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>23650.1484536984</v>
+        <v>23650.1503359141</v>
       </c>
       <c r="C38" t="n">
-        <v>19531.2778673315</v>
+        <v>19531.2795009571</v>
       </c>
       <c r="D38" t="n">
-        <v>17628.693803667</v>
+        <v>17628.6953169024</v>
       </c>
       <c r="E38" t="n">
-        <v>28555.4497133655</v>
+        <v>28555.451873613</v>
       </c>
       <c r="F38" t="n">
-        <v>31515.7715677868</v>
+        <v>31515.7738878241</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>12785</v>
       </c>
       <c r="I38" t="n">
-        <v>10865.1484536984</v>
+        <v>10865.1503359141</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>20139.8447253267</v>
+        <v>20139.8469573383</v>
       </c>
       <c r="C39" t="n">
-        <v>16563.2046189835</v>
+        <v>16563.206629993</v>
       </c>
       <c r="D39" t="n">
-        <v>14916.0396646253</v>
+        <v>14916.0415612785</v>
       </c>
       <c r="E39" t="n">
-        <v>24415.4818638218</v>
+        <v>24415.4843190285</v>
       </c>
       <c r="F39" t="n">
-        <v>27002.9712399197</v>
+        <v>27002.9738119613</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>20580</v>
       </c>
       <c r="I39" t="n">
-        <v>-440.15527467327</v>
+        <v>-440.153042661721</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>28268.5402884833</v>
+        <v>28268.5425833229</v>
       </c>
       <c r="C40" t="n">
-        <v>23278.858072317</v>
+        <v>23278.8601056339</v>
       </c>
       <c r="D40" t="n">
-        <v>20978.7630517937</v>
+        <v>20978.7649543306</v>
       </c>
       <c r="E40" t="n">
-        <v>34226.2898313589</v>
+        <v>34226.2924051891</v>
       </c>
       <c r="F40" t="n">
-        <v>37828.5948493712</v>
+        <v>37828.5975771008</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>23625</v>
       </c>
       <c r="I40" t="n">
-        <v>4643.5402884833</v>
+        <v>4643.54258332292</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>25803.3262905801</v>
+        <v>25803.3304073739</v>
       </c>
       <c r="C41" t="n">
-        <v>21116.471118711</v>
+        <v>21116.4747529695</v>
       </c>
       <c r="D41" t="n">
-        <v>18965.6820215546</v>
+        <v>18965.6854148856</v>
       </c>
       <c r="E41" t="n">
-        <v>31431.234572355</v>
+        <v>31431.2392045839</v>
       </c>
       <c r="F41" t="n">
-        <v>34848.2731253077</v>
+        <v>34848.2780419606</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>21597</v>
       </c>
       <c r="I41" t="n">
-        <v>4206.32629058008</v>
+        <v>4206.33040737392</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>25701.6855555747</v>
+        <v>25701.6856784196</v>
       </c>
       <c r="C42" t="n">
-        <v>20962.4997196701</v>
+        <v>20962.5002910662</v>
       </c>
       <c r="D42" t="n">
-        <v>18792.9814643254</v>
+        <v>18792.9822058573</v>
       </c>
       <c r="E42" t="n">
-        <v>31409.8226666035</v>
+        <v>31409.8221330771</v>
       </c>
       <c r="F42" t="n">
-        <v>34883.3442977899</v>
+        <v>34883.3433130001</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>20963</v>
       </c>
       <c r="I42" t="n">
-        <v>4738.68555557469</v>
+        <v>4738.68567841959</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>24153.4786681358</v>
+        <v>24153.4814138271</v>
       </c>
       <c r="C43" t="n">
-        <v>19612.1352872335</v>
+        <v>19612.1378997336</v>
       </c>
       <c r="D43" t="n">
-        <v>17539.8678299602</v>
+        <v>17539.8703524506</v>
       </c>
       <c r="E43" t="n">
-        <v>29645.4322699483</v>
+        <v>29645.4350796792</v>
       </c>
       <c r="F43" t="n">
-        <v>32997.3042406536</v>
+        <v>32997.3070460516</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>19664</v>
       </c>
       <c r="I43" t="n">
-        <v>4489.47866813582</v>
+        <v>4489.48141382706</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>25297.5952952926</v>
+        <v>25297.599032511</v>
       </c>
       <c r="C44" t="n">
-        <v>20474.6779767572</v>
+        <v>20474.6815321219</v>
       </c>
       <c r="D44" t="n">
-        <v>18279.0709556235</v>
+        <v>18279.0743870855</v>
       </c>
       <c r="E44" t="n">
-        <v>31147.1826487753</v>
+        <v>31147.1864694597</v>
       </c>
       <c r="F44" t="n">
-        <v>34725.004591516</v>
+        <v>34725.0084018123</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>22326</v>
       </c>
       <c r="I44" t="n">
-        <v>2971.59529529264</v>
+        <v>2971.59903251096</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>24964.5672026885</v>
+        <v>24964.5680659657</v>
       </c>
       <c r="C45" t="n">
-        <v>20131.3531054248</v>
+        <v>20131.3544349601</v>
       </c>
       <c r="D45" t="n">
-        <v>17936.8686333889</v>
+        <v>17936.870124715</v>
       </c>
       <c r="E45" t="n">
-        <v>30846.067627479</v>
+        <v>30846.0677560766</v>
       </c>
       <c r="F45" t="n">
-        <v>34452.1353797198</v>
+        <v>34452.1349827722</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>23214</v>
       </c>
       <c r="I45" t="n">
-        <v>1750.56720268846</v>
+        <v>1750.56806596568</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>23290.9942120356</v>
+        <v>23290.9967074807</v>
       </c>
       <c r="C46" t="n">
-        <v>18695.0620185571</v>
+        <v>18695.0646437675</v>
       </c>
       <c r="D46" t="n">
-        <v>16615.2854109181</v>
+        <v>16615.2880447884</v>
       </c>
       <c r="E46" t="n">
-        <v>28907.1937599639</v>
+        <v>28907.1959279272</v>
       </c>
       <c r="F46" t="n">
-        <v>32361.1582289339</v>
+        <v>32361.1601195095</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>20022</v>
       </c>
       <c r="I46" t="n">
-        <v>3268.9942120356</v>
+        <v>3268.99670748073</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>22245.6678742758</v>
+        <v>22245.6705482995</v>
       </c>
       <c r="C47" t="n">
-        <v>17777.5169727392</v>
+        <v>17777.5197680725</v>
       </c>
       <c r="D47" t="n">
-        <v>15761.9986715522</v>
+        <v>15762.001467588</v>
       </c>
       <c r="E47" t="n">
-        <v>27727.4956744197</v>
+        <v>27727.4980162127</v>
       </c>
       <c r="F47" t="n">
-        <v>31108.6473434363</v>
+        <v>31108.649397638</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>19466</v>
       </c>
       <c r="I47" t="n">
-        <v>2779.66787427579</v>
+        <v>2779.67054829947</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>24446.653759502</v>
+        <v>24446.6539729134</v>
       </c>
       <c r="C48" t="n">
-        <v>19503.3962603362</v>
+        <v>19503.39721702</v>
       </c>
       <c r="D48" t="n">
-        <v>17276.2931552717</v>
+        <v>17276.2943818246</v>
       </c>
       <c r="E48" t="n">
-        <v>30520.6504246379</v>
+        <v>30520.6495035435</v>
       </c>
       <c r="F48" t="n">
-        <v>34271.2339412118</v>
+        <v>34271.2322197826</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>20280</v>
       </c>
       <c r="I48" t="n">
-        <v>4166.65375950204</v>
+        <v>4166.65397291344</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>23974.6347045295</v>
+        <v>23974.6376612593</v>
       </c>
       <c r="C49" t="n">
-        <v>19056.7419700869</v>
+        <v>19056.7451689018</v>
       </c>
       <c r="D49" t="n">
-        <v>16846.9468799551</v>
+        <v>16846.9501162915</v>
       </c>
       <c r="E49" t="n">
-        <v>30037.5292755436</v>
+        <v>30037.531690052</v>
       </c>
       <c r="F49" t="n">
-        <v>33790.3321004721</v>
+        <v>33790.3340691949</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>18085</v>
       </c>
       <c r="I49" t="n">
-        <v>5889.63470452948</v>
+        <v>5889.63766125929</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Hepatitis C.xlsx
+++ b/outcome/appendix/forecast/Hepatitis C.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>21345.47030966</v>
+        <v>21345.4717356947</v>
       </c>
       <c r="C2" t="n">
-        <v>19607.7229924906</v>
+        <v>19607.7231617663</v>
       </c>
       <c r="D2" t="n">
-        <v>18741.4569545174</v>
+        <v>18741.4573957134</v>
       </c>
       <c r="E2" t="n">
-        <v>23223.9689487452</v>
+        <v>23223.9749408132</v>
       </c>
       <c r="F2" t="n">
-        <v>24278.86458661</v>
+        <v>24278.8747923736</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>17287</v>
       </c>
       <c r="I2" t="n">
-        <v>4058.47030965999</v>
+        <v>4058.47173569472</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>18990.0965239853</v>
+        <v>18990.093687051</v>
       </c>
       <c r="C3" t="n">
-        <v>17422.6283746381</v>
+        <v>17422.62728119</v>
       </c>
       <c r="D3" t="n">
-        <v>16641.9307688624</v>
+        <v>16641.9309912885</v>
       </c>
       <c r="E3" t="n">
-        <v>20686.4325863867</v>
+        <v>20686.4297661147</v>
       </c>
       <c r="F3" t="n">
-        <v>21639.8385833558</v>
+        <v>21639.8368514317</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>9068</v>
       </c>
       <c r="I3" t="n">
-        <v>9922.09652398532</v>
+        <v>9922.09368705096</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>25951.1983452087</v>
+        <v>25951.2100608192</v>
       </c>
       <c r="C4" t="n">
-        <v>23752.7030039299</v>
+        <v>23752.704587991</v>
       </c>
       <c r="D4" t="n">
-        <v>22659.5620520796</v>
+        <v>22659.5606199138</v>
       </c>
       <c r="E4" t="n">
-        <v>28335.6074435482</v>
+        <v>28335.6367799215</v>
       </c>
       <c r="F4" t="n">
-        <v>29677.922189474</v>
+        <v>29677.9646582595</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16718</v>
       </c>
       <c r="I4" t="n">
-        <v>9233.19834520866</v>
+        <v>9233.21006081916</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>23492.7926779672</v>
+        <v>23492.7974387493</v>
       </c>
       <c r="C5" t="n">
-        <v>21308.2391514846</v>
+        <v>21308.2393930084</v>
       </c>
       <c r="D5" t="n">
-        <v>20229.0292511941</v>
+        <v>20229.0289366495</v>
       </c>
       <c r="E5" t="n">
-        <v>25881.8093548998</v>
+        <v>25881.8249963338</v>
       </c>
       <c r="F5" t="n">
-        <v>27235.1111923554</v>
+        <v>27235.1360184829</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>20179</v>
       </c>
       <c r="I5" t="n">
-        <v>3313.79267796716</v>
+        <v>3313.79743874928</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23315.5767304646</v>
+        <v>23315.5868934122</v>
       </c>
       <c r="C6" t="n">
-        <v>21098.3740477307</v>
+        <v>21098.3790453533</v>
       </c>
       <c r="D6" t="n">
-        <v>20004.848627727</v>
+        <v>20004.8527853187</v>
       </c>
       <c r="E6" t="n">
-        <v>25745.4525017995</v>
+        <v>25745.4744458694</v>
       </c>
       <c r="F6" t="n">
-        <v>27124.0917635349</v>
+        <v>27124.1235266964</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>19821</v>
       </c>
       <c r="I6" t="n">
-        <v>3494.57673046461</v>
+        <v>3494.58689341218</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>22018.0530148886</v>
+        <v>22018.0541703305</v>
       </c>
       <c r="C7" t="n">
-        <v>19860.2404285733</v>
+        <v>19860.2402622223</v>
       </c>
       <c r="D7" t="n">
-        <v>18798.4439962013</v>
+        <v>18798.4445627294</v>
       </c>
       <c r="E7" t="n">
-        <v>24389.796636293</v>
+        <v>24389.8045101507</v>
       </c>
       <c r="F7" t="n">
-        <v>25738.4163875627</v>
+        <v>25738.4308785554</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>20367</v>
       </c>
       <c r="I7" t="n">
-        <v>1651.05301488859</v>
+        <v>1651.0541703305</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>22400.7972313025</v>
+        <v>22400.8002006785</v>
       </c>
       <c r="C8" t="n">
-        <v>20107.0011614673</v>
+        <v>20107.0018203182</v>
       </c>
       <c r="D8" t="n">
-        <v>18982.2169989734</v>
+        <v>18982.2181406528</v>
       </c>
       <c r="E8" t="n">
-        <v>24933.2703044308</v>
+        <v>24933.2820113399</v>
       </c>
       <c r="F8" t="n">
-        <v>26378.095983977</v>
+        <v>26378.1159673395</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>20520</v>
       </c>
       <c r="I8" t="n">
-        <v>1880.79723130254</v>
+        <v>1880.80020067847</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>22236.1847723955</v>
+        <v>22236.1897548311</v>
       </c>
       <c r="C9" t="n">
-        <v>19899.2417160511</v>
+        <v>19899.2443134497</v>
       </c>
       <c r="D9" t="n">
-        <v>18755.7591387727</v>
+        <v>18755.7622065297</v>
       </c>
       <c r="E9" t="n">
-        <v>24823.3899764303</v>
+        <v>24823.4039895953</v>
       </c>
       <c r="F9" t="n">
-        <v>26302.4757617764</v>
+        <v>26302.498372612</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>20520</v>
       </c>
       <c r="I9" t="n">
-        <v>1716.18477239548</v>
+        <v>1716.18975483108</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>21168.2797506866</v>
+        <v>21168.2803504255</v>
       </c>
       <c r="C10" t="n">
-        <v>18879.1241209189</v>
+        <v>18879.124920236</v>
       </c>
       <c r="D10" t="n">
-        <v>17761.7455416621</v>
+        <v>17761.7477661303</v>
       </c>
       <c r="E10" t="n">
-        <v>23710.4678324577</v>
+        <v>23710.473796301</v>
       </c>
       <c r="F10" t="n">
-        <v>25167.1966357712</v>
+        <v>25167.2088000945</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>21538</v>
       </c>
       <c r="I10" t="n">
-        <v>-369.72024931341</v>
+        <v>-369.719649574461</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>19880.2705226378</v>
+        <v>19880.2695152265</v>
       </c>
       <c r="C11" t="n">
-        <v>17656.2414680659</v>
+        <v>17656.2428070821</v>
       </c>
       <c r="D11" t="n">
-        <v>16573.8969032786</v>
+        <v>16573.9003150286</v>
       </c>
       <c r="E11" t="n">
-        <v>22359.5886399429</v>
+        <v>22359.5895478618</v>
       </c>
       <c r="F11" t="n">
-        <v>23784.3508979324</v>
+        <v>23784.3556222093</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>20067</v>
       </c>
       <c r="I11" t="n">
-        <v>-186.729477362202</v>
+        <v>-186.73048477347</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>22255.1978797098</v>
+        <v>22255.2025562495</v>
       </c>
       <c r="C12" t="n">
-        <v>19726.2869808374</v>
+        <v>19726.2894676795</v>
       </c>
       <c r="D12" t="n">
-        <v>18497.3128679192</v>
+        <v>18497.3161460789</v>
       </c>
       <c r="E12" t="n">
-        <v>25079.4991486975</v>
+        <v>25079.5138409638</v>
       </c>
       <c r="F12" t="n">
-        <v>26704.7016827324</v>
+        <v>26704.7262985718</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>20801</v>
       </c>
       <c r="I12" t="n">
-        <v>1454.19787970981</v>
+        <v>1454.20255624949</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>22262.9597821615</v>
+        <v>22262.9630761857</v>
       </c>
       <c r="C13" t="n">
-        <v>19676.2559287763</v>
+        <v>19676.2572924163</v>
       </c>
       <c r="D13" t="n">
-        <v>18421.7880433174</v>
+        <v>18421.7903909921</v>
       </c>
       <c r="E13" t="n">
-        <v>25159.4172382546</v>
+        <v>25159.4306370287</v>
       </c>
       <c r="F13" t="n">
-        <v>26829.4159122855</v>
+        <v>26829.4395316443</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>20438</v>
       </c>
       <c r="I13" t="n">
-        <v>1824.95978216153</v>
+        <v>1824.96307618571</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22183.3832944909</v>
+        <v>22183.3850923047</v>
       </c>
       <c r="C14" t="n">
-        <v>19565.0025100853</v>
+        <v>19565.0028420847</v>
       </c>
       <c r="D14" t="n">
-        <v>18297.0675742068</v>
+        <v>18297.0691254591</v>
       </c>
       <c r="E14" t="n">
-        <v>25120.8972592045</v>
+        <v>25120.9087990911</v>
       </c>
       <c r="F14" t="n">
-        <v>26816.9728917719</v>
+        <v>26816.9945695475</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>18258</v>
       </c>
       <c r="I14" t="n">
-        <v>3925.38329449091</v>
+        <v>3925.38509230474</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>18520.5940767925</v>
+        <v>18520.5909186838</v>
       </c>
       <c r="C15" t="n">
-        <v>16254.7002119053</v>
+        <v>16254.7015212404</v>
       </c>
       <c r="D15" t="n">
-        <v>15161.2932681276</v>
+        <v>15161.2972187462</v>
       </c>
       <c r="E15" t="n">
-        <v>21074.0293113169</v>
+        <v>21074.0248164373</v>
       </c>
       <c r="F15" t="n">
-        <v>22553.253520119</v>
+        <v>22553.2508123588</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>14714</v>
       </c>
       <c r="I15" t="n">
-        <v>3806.59407679249</v>
+        <v>3806.59091868375</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>26893.6004362768</v>
+        <v>26893.6166197365</v>
       </c>
       <c r="C16" t="n">
-        <v>23636.7557270844</v>
+        <v>23636.7558169264</v>
       </c>
       <c r="D16" t="n">
-        <v>22063.5731235588</v>
+        <v>22063.5696995591</v>
       </c>
       <c r="E16" t="n">
-        <v>30559.0092819582</v>
+        <v>30559.0593822129</v>
       </c>
       <c r="F16" t="n">
-        <v>32680.3704051518</v>
+        <v>32680.4483044184</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>23776</v>
       </c>
       <c r="I16" t="n">
-        <v>3117.60043627682</v>
+        <v>3117.61661973651</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>24137.4102374515</v>
+        <v>24137.4190569878</v>
       </c>
       <c r="C17" t="n">
-        <v>21140.9458885496</v>
+        <v>21140.9478718085</v>
       </c>
       <c r="D17" t="n">
-        <v>19697.1214193618</v>
+        <v>19697.1231292573</v>
       </c>
       <c r="E17" t="n">
-        <v>27520.433726217</v>
+        <v>27520.4623501436</v>
       </c>
       <c r="F17" t="n">
-        <v>29482.9697759142</v>
+        <v>29483.0164293939</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>22613</v>
       </c>
       <c r="I17" t="n">
-        <v>1524.41023745154</v>
+        <v>1524.41905698776</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>24300.1463281836</v>
+        <v>24300.1545960246</v>
       </c>
       <c r="C18" t="n">
-        <v>21232.0739565262</v>
+        <v>21232.0750030451</v>
       </c>
       <c r="D18" t="n">
-        <v>19756.3018857952</v>
+        <v>19756.3026456131</v>
       </c>
       <c r="E18" t="n">
-        <v>27771.6491787791</v>
+        <v>27771.6784282642</v>
       </c>
       <c r="F18" t="n">
-        <v>29788.814819354</v>
+        <v>29788.8632063158</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>21254</v>
       </c>
       <c r="I18" t="n">
-        <v>3046.14632818356</v>
+        <v>3046.15459602457</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>22681.3590127022</v>
+        <v>22681.3637011386</v>
       </c>
       <c r="C19" t="n">
-        <v>19755.2116970963</v>
+        <v>19755.2137377592</v>
       </c>
       <c r="D19" t="n">
-        <v>18350.8841130877</v>
+        <v>18350.8873351617</v>
       </c>
       <c r="E19" t="n">
-        <v>26001.8001827658</v>
+        <v>26001.818526771</v>
       </c>
       <c r="F19" t="n">
-        <v>27935.3160287551</v>
+        <v>27935.3483476813</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>20937</v>
       </c>
       <c r="I19" t="n">
-        <v>1744.35901270223</v>
+        <v>1744.36370113861</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>23613.2910786309</v>
+        <v>23613.2996141384</v>
       </c>
       <c r="C20" t="n">
-        <v>20529.0857230597</v>
+        <v>20529.0888880206</v>
       </c>
       <c r="D20" t="n">
-        <v>19050.8524890395</v>
+        <v>19050.856068744</v>
       </c>
       <c r="E20" t="n">
-        <v>27118.9559149428</v>
+        <v>27118.9831177113</v>
       </c>
       <c r="F20" t="n">
-        <v>29162.8722632174</v>
+        <v>29162.9173250656</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>22940</v>
       </c>
       <c r="I20" t="n">
-        <v>673.291078630868</v>
+        <v>673.299614138428</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>23472.9785128908</v>
+        <v>23472.9856428961</v>
       </c>
       <c r="C21" t="n">
-        <v>20358.3442231216</v>
+        <v>20358.3465505783</v>
       </c>
       <c r="D21" t="n">
-        <v>18868.0823159854</v>
+        <v>18868.0853303089</v>
       </c>
       <c r="E21" t="n">
-        <v>27020.942887715</v>
+        <v>27020.9682361485</v>
       </c>
       <c r="F21" t="n">
-        <v>29092.8686637006</v>
+        <v>29092.9117864571</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>20001</v>
       </c>
       <c r="I21" t="n">
-        <v>3471.97851289078</v>
+        <v>3471.9856428961</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>21829.3282310957</v>
+        <v>21829.3311676476</v>
       </c>
       <c r="C22" t="n">
-        <v>18873.8184564371</v>
+        <v>18873.8210532754</v>
       </c>
       <c r="D22" t="n">
-        <v>17462.8506404754</v>
+        <v>17462.8552363215</v>
       </c>
       <c r="E22" t="n">
-        <v>25205.5960115171</v>
+        <v>25205.6095993255</v>
       </c>
       <c r="F22" t="n">
-        <v>27181.4140339715</v>
+        <v>27181.4399107922</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>20125</v>
       </c>
       <c r="I22" t="n">
-        <v>1704.32823109572</v>
+        <v>1704.33116764763</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20960.6120785277</v>
+        <v>20960.613600725</v>
       </c>
       <c r="C23" t="n">
-        <v>18073.6617549311</v>
+        <v>18073.6649047402</v>
       </c>
       <c r="D23" t="n">
-        <v>16698.0997548768</v>
+        <v>16698.1054120699</v>
       </c>
       <c r="E23" t="n">
-        <v>24266.6989325621</v>
+        <v>24266.7076294566</v>
       </c>
       <c r="F23" t="n">
-        <v>26204.9890901313</v>
+        <v>26205.0075494889</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>19157</v>
       </c>
       <c r="I23" t="n">
-        <v>1803.61207852766</v>
+        <v>1803.61360072498</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23221.0886373164</v>
+        <v>23221.0932916328</v>
       </c>
       <c r="C24" t="n">
-        <v>20002.916890661</v>
+        <v>20002.9178185731</v>
       </c>
       <c r="D24" t="n">
-        <v>18470.6276765983</v>
+        <v>18470.6298672723</v>
       </c>
       <c r="E24" t="n">
-        <v>26909.8148129815</v>
+        <v>26909.8372598491</v>
       </c>
       <c r="F24" t="n">
-        <v>29073.8880881529</v>
+        <v>29073.9286953317</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>19858</v>
       </c>
       <c r="I24" t="n">
-        <v>3363.08863731639</v>
+        <v>3363.09329163277</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>22524.9553586732</v>
+        <v>22524.9587850617</v>
       </c>
       <c r="C25" t="n">
-        <v>19353.9609531493</v>
+        <v>19353.9626087269</v>
       </c>
       <c r="D25" t="n">
-        <v>17846.8865883236</v>
+        <v>17846.8900889346</v>
       </c>
       <c r="E25" t="n">
-        <v>26168.0211706271</v>
+        <v>26168.0392039561</v>
       </c>
       <c r="F25" t="n">
-        <v>28308.9755827945</v>
+        <v>28309.009557334</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>20895</v>
       </c>
       <c r="I25" t="n">
-        <v>1629.9553586732</v>
+        <v>1629.95878506168</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23095.3461518818</v>
+        <v>23095.3503519242</v>
       </c>
       <c r="C26" t="n">
-        <v>19771.5927744825</v>
+        <v>19771.593377296</v>
       </c>
       <c r="D26" t="n">
-        <v>18196.0572061446</v>
+        <v>18196.0592538434</v>
       </c>
       <c r="E26" t="n">
-        <v>26926.6287765098</v>
+        <v>26926.651611544</v>
       </c>
       <c r="F26" t="n">
-        <v>29183.7493005487</v>
+        <v>29183.7915130934</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>18704</v>
       </c>
       <c r="I26" t="n">
-        <v>4391.34615188177</v>
+        <v>4391.35035192417</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>19193.2026972825</v>
+        <v>19193.2012922532</v>
       </c>
       <c r="C27" t="n">
-        <v>16360.6861507122</v>
+        <v>16360.6895533156</v>
       </c>
       <c r="D27" t="n">
-        <v>15022.1361728506</v>
+        <v>15022.1426842098</v>
       </c>
       <c r="E27" t="n">
-        <v>22470.987970063</v>
+        <v>22470.9879190343</v>
       </c>
       <c r="F27" t="n">
-        <v>24407.6088775796</v>
+        <v>24407.6145295369</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>16733</v>
       </c>
       <c r="I27" t="n">
-        <v>2460.20269728253</v>
+        <v>2460.20129225323</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>27239.9237733108</v>
+        <v>27239.94437072</v>
       </c>
       <c r="C28" t="n">
-        <v>23263.1595834707</v>
+        <v>23263.1603639791</v>
       </c>
       <c r="D28" t="n">
-        <v>21381.3635227141</v>
+        <v>21381.361013859</v>
       </c>
       <c r="E28" t="n">
-        <v>31834.0530235747</v>
+        <v>31834.121247717</v>
       </c>
       <c r="F28" t="n">
-        <v>34545.0146210173</v>
+        <v>34545.1243265382</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>21722</v>
       </c>
       <c r="I28" t="n">
-        <v>5517.92377331082</v>
+        <v>5517.94437072</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>25093.3620306245</v>
+        <v>25093.3737043863</v>
       </c>
       <c r="C29" t="n">
-        <v>21348.6865262401</v>
+        <v>21348.6874063702</v>
       </c>
       <c r="D29" t="n">
-        <v>19581.5426564322</v>
+        <v>19581.5431671313</v>
       </c>
       <c r="E29" t="n">
-        <v>29434.3318818551</v>
+        <v>29434.3766113135</v>
       </c>
       <c r="F29" t="n">
-        <v>32002.4603286347</v>
+        <v>32002.5361564743</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>17712</v>
       </c>
       <c r="I29" t="n">
-        <v>7381.36203062445</v>
+        <v>7381.3737043863</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>24980.1771296313</v>
+        <v>24980.1889770591</v>
       </c>
       <c r="C30" t="n">
-        <v>21201.0351433126</v>
+        <v>21201.0364434823</v>
       </c>
       <c r="D30" t="n">
-        <v>19420.7226593912</v>
+        <v>19420.7237370096</v>
       </c>
       <c r="E30" t="n">
-        <v>29370.7377294119</v>
+        <v>29370.782737899</v>
       </c>
       <c r="F30" t="n">
-        <v>31972.4296131195</v>
+        <v>31972.5060933189</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>18720</v>
       </c>
       <c r="I30" t="n">
-        <v>6260.17712963129</v>
+        <v>6260.18897705915</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>23432.2761190632</v>
+        <v>23432.282679137</v>
       </c>
       <c r="C31" t="n">
-        <v>19823.1880176302</v>
+        <v>19823.189681451</v>
       </c>
       <c r="D31" t="n">
-        <v>18126.9264812684</v>
+        <v>18126.92956628</v>
       </c>
       <c r="E31" t="n">
-        <v>27637.5818666018</v>
+        <v>27637.611874786</v>
       </c>
       <c r="F31" t="n">
-        <v>30134.9061966213</v>
+        <v>30134.9605682545</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>20925</v>
       </c>
       <c r="I31" t="n">
-        <v>2507.27611906325</v>
+        <v>2507.28267913698</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>25058.2341833882</v>
+        <v>25058.2431866023</v>
       </c>
       <c r="C32" t="n">
-        <v>21164.6962683201</v>
+        <v>21164.6947163973</v>
       </c>
       <c r="D32" t="n">
-        <v>19336.8549797344</v>
+        <v>19336.8534843639</v>
       </c>
       <c r="E32" t="n">
-        <v>29601.5985684429</v>
+        <v>29601.6423203444</v>
       </c>
       <c r="F32" t="n">
-        <v>32302.5874694255</v>
+        <v>32302.6646535856</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>21867</v>
       </c>
       <c r="I32" t="n">
-        <v>3191.23418338819</v>
+        <v>3191.24318660232</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>24583.3874153773</v>
+        <v>24583.3960236192</v>
       </c>
       <c r="C33" t="n">
-        <v>20709.7222303278</v>
+        <v>20709.7218968362</v>
       </c>
       <c r="D33" t="n">
-        <v>18894.6056984735</v>
+        <v>18894.6059208111</v>
       </c>
       <c r="E33" t="n">
-        <v>29114.2393535494</v>
+        <v>29114.2802604019</v>
       </c>
       <c r="F33" t="n">
-        <v>31812.4883134911</v>
+        <v>31812.5610663827</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>21891</v>
       </c>
       <c r="I33" t="n">
-        <v>2692.38741537728</v>
+        <v>2692.39602361921</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>22644.2131974424</v>
+        <v>22644.2175321304</v>
       </c>
       <c r="C34" t="n">
-        <v>19010.1025015214</v>
+        <v>19010.1044112018</v>
       </c>
       <c r="D34" t="n">
-        <v>17311.4755067662</v>
+        <v>17311.4796234814</v>
       </c>
       <c r="E34" t="n">
-        <v>26908.2576241871</v>
+        <v>26908.2821265808</v>
       </c>
       <c r="F34" t="n">
-        <v>29453.5178619279</v>
+        <v>29453.5649817192</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>18740</v>
       </c>
       <c r="I34" t="n">
-        <v>3904.21319744238</v>
+        <v>3904.21753213037</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21825.0187793825</v>
+        <v>21825.0203336636</v>
       </c>
       <c r="C35" t="n">
-        <v>18269.683376147</v>
+        <v>18269.6850031021</v>
       </c>
       <c r="D35" t="n">
-        <v>16611.3167231294</v>
+        <v>16611.3211549679</v>
       </c>
       <c r="E35" t="n">
-        <v>26007.5454185577</v>
+        <v>26007.562532025</v>
       </c>
       <c r="F35" t="n">
-        <v>28508.963503891</v>
+        <v>28508.9998148007</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>16020</v>
       </c>
       <c r="I35" t="n">
-        <v>5805.01877938252</v>
+        <v>5805.02033366365</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23666.3197658909</v>
+        <v>23666.3272420341</v>
       </c>
       <c r="C36" t="n">
-        <v>19788.6146533816</v>
+        <v>19788.6162276954</v>
       </c>
       <c r="D36" t="n">
-        <v>17981.3535506763</v>
+        <v>17981.3566404254</v>
       </c>
       <c r="E36" t="n">
-        <v>28232.771467085</v>
+        <v>28232.8070348947</v>
       </c>
       <c r="F36" t="n">
-        <v>30965.870285914</v>
+        <v>30965.9353065836</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>15057</v>
       </c>
       <c r="I36" t="n">
-        <v>8609.31976589088</v>
+        <v>8609.32724203409</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>22976.7292188822</v>
+        <v>22976.7357413847</v>
       </c>
       <c r="C37" t="n">
-        <v>19160.5965015166</v>
+        <v>19160.5993332484</v>
       </c>
       <c r="D37" t="n">
-        <v>17385.4594936645</v>
+        <v>17385.4643790096</v>
       </c>
       <c r="E37" t="n">
-        <v>27481.6056030421</v>
+        <v>27481.6362134419</v>
       </c>
       <c r="F37" t="n">
-        <v>30182.6850853115</v>
+        <v>30182.7422236045</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11050</v>
       </c>
       <c r="I37" t="n">
-        <v>11926.7292188822</v>
+        <v>11926.7357413847</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>23650.1503359141</v>
+        <v>23650.1575752535</v>
       </c>
       <c r="C38" t="n">
-        <v>19531.2795009571</v>
+        <v>19531.2810818505</v>
       </c>
       <c r="D38" t="n">
-        <v>17628.6953169024</v>
+        <v>17628.6988980549</v>
       </c>
       <c r="E38" t="n">
-        <v>28555.451873613</v>
+        <v>28555.4900806493</v>
       </c>
       <c r="F38" t="n">
-        <v>31515.7738878241</v>
+        <v>31515.8456217974</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>12785</v>
       </c>
       <c r="I38" t="n">
-        <v>10865.1503359141</v>
+        <v>10865.1575752535</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>20139.8469573383</v>
+        <v>20139.8441339634</v>
       </c>
       <c r="C39" t="n">
-        <v>16563.206629993</v>
+        <v>16563.2084895383</v>
       </c>
       <c r="D39" t="n">
-        <v>14916.0415612785</v>
+        <v>14916.0471531267</v>
       </c>
       <c r="E39" t="n">
-        <v>24415.4843190285</v>
+        <v>24415.4894734553</v>
       </c>
       <c r="F39" t="n">
-        <v>27002.9738119613</v>
+        <v>27002.9935529138</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>20580</v>
       </c>
       <c r="I39" t="n">
-        <v>-440.153042661721</v>
+        <v>-440.155866036584</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>28268.5425833229</v>
+        <v>28268.5726472297</v>
       </c>
       <c r="C40" t="n">
-        <v>23278.8601056339</v>
+        <v>23278.8616448627</v>
       </c>
       <c r="D40" t="n">
-        <v>20978.7649543306</v>
+        <v>20978.7626960376</v>
       </c>
       <c r="E40" t="n">
-        <v>34226.2924051891</v>
+        <v>34226.398558673</v>
       </c>
       <c r="F40" t="n">
-        <v>37828.5975771008</v>
+        <v>37828.7735336188</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>23625</v>
       </c>
       <c r="I40" t="n">
-        <v>4643.54258332292</v>
+        <v>4643.5726472297</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>25803.3304073739</v>
+        <v>25803.3470571867</v>
       </c>
       <c r="C41" t="n">
-        <v>21116.4747529695</v>
+        <v>21116.4762889787</v>
       </c>
       <c r="D41" t="n">
-        <v>18965.6854148856</v>
+        <v>18965.6870925912</v>
       </c>
       <c r="E41" t="n">
-        <v>31431.2392045839</v>
+        <v>31431.3089086811</v>
       </c>
       <c r="F41" t="n">
-        <v>34848.2780419606</v>
+        <v>34848.4006766911</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>21597</v>
       </c>
       <c r="I41" t="n">
-        <v>4206.33040737392</v>
+        <v>4206.34705718673</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>25701.6856784196</v>
+        <v>25701.7045125861</v>
       </c>
       <c r="C42" t="n">
-        <v>20962.5002910662</v>
+        <v>20962.5038405532</v>
       </c>
       <c r="D42" t="n">
-        <v>18792.9822058573</v>
+        <v>18792.9858893671</v>
       </c>
       <c r="E42" t="n">
-        <v>31409.8221330771</v>
+        <v>31409.8951367741</v>
       </c>
       <c r="F42" t="n">
-        <v>34883.3433130001</v>
+        <v>34883.4706614487</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>20963</v>
       </c>
       <c r="I42" t="n">
-        <v>4738.68567841959</v>
+        <v>4738.7045125861</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>24153.4814138271</v>
+        <v>24153.4909468717</v>
       </c>
       <c r="C43" t="n">
-        <v>19612.1378997336</v>
+        <v>19612.1399508958</v>
       </c>
       <c r="D43" t="n">
-        <v>17539.8703524506</v>
+        <v>17539.8746003169</v>
       </c>
       <c r="E43" t="n">
-        <v>29645.4350796792</v>
+        <v>29645.4845772224</v>
       </c>
       <c r="F43" t="n">
-        <v>32997.3070460516</v>
+        <v>32997.4002162589</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>19664</v>
       </c>
       <c r="I43" t="n">
-        <v>4489.48141382706</v>
+        <v>4489.49094687174</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>25297.599032511</v>
+        <v>25297.6126058833</v>
       </c>
       <c r="C44" t="n">
-        <v>20474.6815321219</v>
+        <v>20474.6824950672</v>
       </c>
       <c r="D44" t="n">
-        <v>18279.0743870855</v>
+        <v>18279.0766079871</v>
       </c>
       <c r="E44" t="n">
-        <v>31147.1864694597</v>
+        <v>31147.2521768822</v>
       </c>
       <c r="F44" t="n">
-        <v>34725.0084018123</v>
+        <v>34725.1284964235</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>22326</v>
       </c>
       <c r="I44" t="n">
-        <v>2971.59903251096</v>
+        <v>2971.61260588327</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>24964.5680659657</v>
+        <v>24964.5817322044</v>
       </c>
       <c r="C45" t="n">
-        <v>20131.3544349601</v>
+        <v>20131.3567517675</v>
       </c>
       <c r="D45" t="n">
-        <v>17936.870124715</v>
+        <v>17936.8740470154</v>
       </c>
       <c r="E45" t="n">
-        <v>30846.0677560766</v>
+        <v>30846.1319330798</v>
       </c>
       <c r="F45" t="n">
-        <v>34452.1349827722</v>
+        <v>34452.2528455126</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>23214</v>
       </c>
       <c r="I45" t="n">
-        <v>1750.56806596568</v>
+        <v>1750.58173220441</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>23290.9967074807</v>
+        <v>23291.0033519556</v>
       </c>
       <c r="C46" t="n">
-        <v>18695.0646437675</v>
+        <v>18695.0674302066</v>
       </c>
       <c r="D46" t="n">
-        <v>16615.2880447884</v>
+        <v>16615.2940394952</v>
       </c>
       <c r="E46" t="n">
-        <v>28907.1959279272</v>
+        <v>28907.2379929446</v>
       </c>
       <c r="F46" t="n">
-        <v>32361.1601195095</v>
+        <v>32361.2440115583</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>20022</v>
       </c>
       <c r="I46" t="n">
-        <v>3268.99670748073</v>
+        <v>3269.00335195559</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>22245.6705482995</v>
+        <v>22245.6738046847</v>
       </c>
       <c r="C47" t="n">
-        <v>17777.5197680725</v>
+        <v>17777.5230841702</v>
       </c>
       <c r="D47" t="n">
-        <v>15762.001467588</v>
+        <v>15762.0086423641</v>
       </c>
       <c r="E47" t="n">
-        <v>27727.4980162127</v>
+        <v>27727.5284136515</v>
       </c>
       <c r="F47" t="n">
-        <v>31108.649397638</v>
+        <v>31108.7151400465</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>19466</v>
       </c>
       <c r="I47" t="n">
-        <v>2779.67054829947</v>
+        <v>2779.67380468473</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>24446.6539729134</v>
+        <v>24446.6660581818</v>
       </c>
       <c r="C48" t="n">
-        <v>19503.39721702</v>
+        <v>19503.4003770671</v>
       </c>
       <c r="D48" t="n">
-        <v>17276.2943818246</v>
+        <v>17276.3000124744</v>
       </c>
       <c r="E48" t="n">
-        <v>30520.6495035435</v>
+        <v>30520.7106253894</v>
       </c>
       <c r="F48" t="n">
-        <v>34271.2322197826</v>
+        <v>34271.3479276235</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>20280</v>
       </c>
       <c r="I48" t="n">
-        <v>4166.65397291344</v>
+        <v>4166.66605818185</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>23974.6376612593</v>
+        <v>23974.6473997531</v>
       </c>
       <c r="C49" t="n">
-        <v>19056.7451689018</v>
+        <v>19056.7482773621</v>
       </c>
       <c r="D49" t="n">
-        <v>16846.9501162915</v>
+        <v>16846.9562489377</v>
       </c>
       <c r="E49" t="n">
-        <v>30037.531690052</v>
+        <v>30037.5866058978</v>
       </c>
       <c r="F49" t="n">
-        <v>33790.3340691949</v>
+        <v>33790.4410327976</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>18085</v>
       </c>
       <c r="I49" t="n">
-        <v>5889.63766125929</v>
+        <v>5889.64739975309</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Hepatitis C.xlsx
+++ b/outcome/appendix/forecast/Hepatitis C.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>21345.4717356947</v>
+        <v>21345.4699906806</v>
       </c>
       <c r="C2" t="n">
-        <v>19607.7231617663</v>
+        <v>19607.7224810732</v>
       </c>
       <c r="D2" t="n">
-        <v>18741.4573957134</v>
+        <v>18741.456440295</v>
       </c>
       <c r="E2" t="n">
-        <v>23223.9749408132</v>
+        <v>23223.969167691</v>
       </c>
       <c r="F2" t="n">
-        <v>24278.8747923736</v>
+        <v>24278.8652764556</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>17287</v>
       </c>
       <c r="I2" t="n">
-        <v>4058.47173569472</v>
+        <v>4058.46999068063</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>18990.093687051</v>
+        <v>18990.0964180917</v>
       </c>
       <c r="C3" t="n">
-        <v>17422.62728119</v>
+        <v>17422.6284267589</v>
       </c>
       <c r="D3" t="n">
-        <v>16641.9309912885</v>
+        <v>16641.9309444918</v>
       </c>
       <c r="E3" t="n">
-        <v>20686.4297661147</v>
+        <v>20686.432499997</v>
       </c>
       <c r="F3" t="n">
-        <v>21639.8368514317</v>
+        <v>21639.838615895</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>9068</v>
       </c>
       <c r="I3" t="n">
-        <v>9922.09368705096</v>
+        <v>9922.09641809174</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>25951.2100608192</v>
+        <v>25951.1993768087</v>
       </c>
       <c r="C4" t="n">
-        <v>23752.704587991</v>
+        <v>23752.7037740162</v>
       </c>
       <c r="D4" t="n">
-        <v>22659.5606199138</v>
+        <v>22659.5628700539</v>
       </c>
       <c r="E4" t="n">
-        <v>28335.6367799215</v>
+        <v>28335.6093541813</v>
       </c>
       <c r="F4" t="n">
-        <v>29677.9646582595</v>
+        <v>29677.9248875543</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16718</v>
       </c>
       <c r="I4" t="n">
-        <v>9233.21006081916</v>
+        <v>9233.19937680865</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>23492.7974387493</v>
+        <v>23492.7895538927</v>
       </c>
       <c r="C5" t="n">
-        <v>21308.2393930084</v>
+        <v>21308.2365792405</v>
       </c>
       <c r="D5" t="n">
-        <v>20229.0289366495</v>
+        <v>20229.0270950851</v>
       </c>
       <c r="E5" t="n">
-        <v>25881.8249963338</v>
+        <v>25881.8061527262</v>
       </c>
       <c r="F5" t="n">
-        <v>27235.1360184829</v>
+        <v>27235.1082189866</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>20179</v>
       </c>
       <c r="I5" t="n">
-        <v>3313.79743874928</v>
+        <v>3313.78955389266</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23315.5868934122</v>
+        <v>23315.5815208485</v>
       </c>
       <c r="C6" t="n">
-        <v>21098.3790453533</v>
+        <v>21098.378208028</v>
       </c>
       <c r="D6" t="n">
-        <v>20004.8527853187</v>
+        <v>20004.8526389616</v>
       </c>
       <c r="E6" t="n">
-        <v>25745.4744458694</v>
+        <v>25745.4585689708</v>
       </c>
       <c r="F6" t="n">
-        <v>27124.1235266964</v>
+        <v>27124.0988576454</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>19821</v>
       </c>
       <c r="I6" t="n">
-        <v>3494.58689341218</v>
+        <v>3494.58152084855</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>22018.0541703305</v>
+        <v>22018.0517850272</v>
       </c>
       <c r="C7" t="n">
-        <v>19860.2402622223</v>
+        <v>19860.2399279893</v>
       </c>
       <c r="D7" t="n">
-        <v>18798.4445627294</v>
+        <v>18798.4439650005</v>
       </c>
       <c r="E7" t="n">
-        <v>24389.8045101507</v>
+        <v>24389.7950519146</v>
       </c>
       <c r="F7" t="n">
-        <v>25738.4308785554</v>
+        <v>25738.4148474461</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>20367</v>
       </c>
       <c r="I7" t="n">
-        <v>1651.0541703305</v>
+        <v>1651.05178502717</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>22400.8002006785</v>
+        <v>22400.7945807286</v>
       </c>
       <c r="C8" t="n">
-        <v>20107.0018203182</v>
+        <v>20106.999203541</v>
       </c>
       <c r="D8" t="n">
-        <v>18982.2181406528</v>
+        <v>18982.2155174663</v>
       </c>
       <c r="E8" t="n">
-        <v>24933.2820113399</v>
+        <v>24933.2674363683</v>
       </c>
       <c r="F8" t="n">
-        <v>26378.1159673395</v>
+        <v>26378.0932905034</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>20520</v>
       </c>
       <c r="I8" t="n">
-        <v>1880.80020067847</v>
+        <v>1880.79458072861</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>22236.1897548311</v>
+        <v>22236.187021817</v>
       </c>
       <c r="C9" t="n">
-        <v>19899.2443134497</v>
+        <v>19899.2439947128</v>
       </c>
       <c r="D9" t="n">
-        <v>18755.7622065297</v>
+        <v>18755.7615769608</v>
       </c>
       <c r="E9" t="n">
-        <v>24823.4039895953</v>
+        <v>24823.3927789639</v>
       </c>
       <c r="F9" t="n">
-        <v>26302.498372612</v>
+        <v>26302.4792011244</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>20520</v>
       </c>
       <c r="I9" t="n">
-        <v>1716.18975483108</v>
+        <v>1716.18702181696</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>21168.2803504255</v>
+        <v>21168.2789547569</v>
       </c>
       <c r="C10" t="n">
-        <v>18879.124920236</v>
+        <v>18879.1240527176</v>
       </c>
       <c r="D10" t="n">
-        <v>17761.7477661303</v>
+        <v>17761.7459354638</v>
       </c>
       <c r="E10" t="n">
-        <v>23710.473796301</v>
+        <v>23710.4667114286</v>
       </c>
       <c r="F10" t="n">
-        <v>25167.2088000945</v>
+        <v>25167.1956088061</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>21538</v>
       </c>
       <c r="I10" t="n">
-        <v>-369.719649574461</v>
+        <v>-369.721045243099</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>19880.2695152265</v>
+        <v>19880.268998951</v>
       </c>
       <c r="C11" t="n">
-        <v>17656.2428070821</v>
+        <v>17656.240946165</v>
       </c>
       <c r="D11" t="n">
-        <v>16573.9003150286</v>
+        <v>16573.8969353742</v>
       </c>
       <c r="E11" t="n">
-        <v>22359.5895478618</v>
+        <v>22359.5863748037</v>
       </c>
       <c r="F11" t="n">
-        <v>23784.3556222093</v>
+        <v>23784.3484449189</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>20067</v>
       </c>
       <c r="I11" t="n">
-        <v>-186.73048477347</v>
+        <v>-186.731001048985</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>22255.2025562495</v>
+        <v>22255.2010516168</v>
       </c>
       <c r="C12" t="n">
-        <v>19726.2894676795</v>
+        <v>19726.2902309004</v>
       </c>
       <c r="D12" t="n">
-        <v>18497.3161460789</v>
+        <v>18497.3163146134</v>
       </c>
       <c r="E12" t="n">
-        <v>25079.5138409638</v>
+        <v>25079.5029115165</v>
       </c>
       <c r="F12" t="n">
-        <v>26704.7262985718</v>
+        <v>26704.7061677567</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>20801</v>
       </c>
       <c r="I12" t="n">
-        <v>1454.20255624949</v>
+        <v>1454.20105161681</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>22262.9630761857</v>
+        <v>22262.9589988992</v>
       </c>
       <c r="C13" t="n">
-        <v>19676.2572924163</v>
+        <v>19676.2557484504</v>
       </c>
       <c r="D13" t="n">
-        <v>18421.7903909921</v>
+        <v>18421.7883170467</v>
       </c>
       <c r="E13" t="n">
-        <v>25159.4306370287</v>
+        <v>25159.4164847945</v>
       </c>
       <c r="F13" t="n">
-        <v>26829.4395316443</v>
+        <v>26829.4155770346</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>20438</v>
       </c>
       <c r="I13" t="n">
-        <v>1824.96307618571</v>
+        <v>1824.9589988992</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22183.3850923047</v>
+        <v>22183.3842946349</v>
       </c>
       <c r="C14" t="n">
-        <v>19565.0028420847</v>
+        <v>19565.0041319373</v>
       </c>
       <c r="D14" t="n">
-        <v>18297.0691254591</v>
+        <v>18297.0696499513</v>
       </c>
       <c r="E14" t="n">
-        <v>25120.9087990911</v>
+        <v>25120.8982533404</v>
       </c>
       <c r="F14" t="n">
-        <v>26816.9945695475</v>
+        <v>26816.9742828312</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>18258</v>
       </c>
       <c r="I14" t="n">
-        <v>3925.38509230474</v>
+        <v>3925.38429463495</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>18520.5909186838</v>
+        <v>18520.5907296877</v>
       </c>
       <c r="C15" t="n">
-        <v>16254.7015212404</v>
+        <v>16254.6983428512</v>
       </c>
       <c r="D15" t="n">
-        <v>15161.2972187462</v>
+        <v>15161.2921290833</v>
       </c>
       <c r="E15" t="n">
-        <v>21074.0248164373</v>
+        <v>21074.0245739149</v>
       </c>
       <c r="F15" t="n">
-        <v>22553.2508123588</v>
+        <v>22553.2481927241</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>14714</v>
       </c>
       <c r="I15" t="n">
-        <v>3806.59091868375</v>
+        <v>3806.59072968767</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>26893.6166197365</v>
+        <v>26893.5991756558</v>
       </c>
       <c r="C16" t="n">
-        <v>23636.7558169264</v>
+        <v>23636.7542313772</v>
       </c>
       <c r="D16" t="n">
-        <v>22063.5696995591</v>
+        <v>22063.5718914851</v>
       </c>
       <c r="E16" t="n">
-        <v>30559.0593822129</v>
+        <v>30559.0097215369</v>
       </c>
       <c r="F16" t="n">
-        <v>32680.4483044184</v>
+        <v>32680.3725832597</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>23776</v>
       </c>
       <c r="I16" t="n">
-        <v>3117.61661973651</v>
+        <v>3117.59917565582</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>24137.4190569878</v>
+        <v>24137.4105229839</v>
       </c>
       <c r="C17" t="n">
-        <v>21140.9478718085</v>
+        <v>21140.9466141176</v>
       </c>
       <c r="D17" t="n">
-        <v>19697.1231292573</v>
+        <v>19697.122607742</v>
       </c>
       <c r="E17" t="n">
-        <v>27520.4623501436</v>
+        <v>27520.4345706931</v>
       </c>
       <c r="F17" t="n">
-        <v>29483.0164293939</v>
+        <v>29482.9715327077</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>22613</v>
       </c>
       <c r="I17" t="n">
-        <v>1524.41905698776</v>
+        <v>1524.4105229839</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>24300.1545960246</v>
+        <v>24300.1464970248</v>
       </c>
       <c r="C18" t="n">
-        <v>21232.0750030451</v>
+        <v>21232.0746013426</v>
       </c>
       <c r="D18" t="n">
-        <v>19756.3026456131</v>
+        <v>19756.3030227828</v>
       </c>
       <c r="E18" t="n">
-        <v>27771.6784282642</v>
+        <v>27771.6499242328</v>
       </c>
       <c r="F18" t="n">
-        <v>29788.8632063158</v>
+        <v>29788.816522718</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>21254</v>
       </c>
       <c r="I18" t="n">
-        <v>3046.15459602457</v>
+        <v>3046.14649702479</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>22681.3637011386</v>
+        <v>22681.358633825</v>
       </c>
       <c r="C19" t="n">
-        <v>19755.2137377592</v>
+        <v>19755.2122395997</v>
       </c>
       <c r="D19" t="n">
-        <v>18350.8873351617</v>
+        <v>18350.8852882006</v>
       </c>
       <c r="E19" t="n">
-        <v>26001.818526771</v>
+        <v>26001.7996588041</v>
       </c>
       <c r="F19" t="n">
-        <v>27935.3483476813</v>
+        <v>27935.3159513463</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>20937</v>
       </c>
       <c r="I19" t="n">
-        <v>1744.36370113861</v>
+        <v>1744.35863382496</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>23613.2996141384</v>
+        <v>23613.2947525033</v>
       </c>
       <c r="C20" t="n">
-        <v>20529.0888880206</v>
+        <v>20529.0897252775</v>
       </c>
       <c r="D20" t="n">
-        <v>19050.856068744</v>
+        <v>19050.8568838969</v>
       </c>
       <c r="E20" t="n">
-        <v>27118.9831177113</v>
+        <v>27118.9602802393</v>
       </c>
       <c r="F20" t="n">
-        <v>29162.9173250656</v>
+        <v>29162.8776461395</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>22940</v>
       </c>
       <c r="I20" t="n">
-        <v>673.299614138428</v>
+        <v>673.294752503331</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>23472.9856428961</v>
+        <v>23472.9815122508</v>
       </c>
       <c r="C21" t="n">
-        <v>20358.3465505783</v>
+        <v>20358.3477185022</v>
       </c>
       <c r="D21" t="n">
-        <v>18868.0853303089</v>
+        <v>18868.0862800777</v>
       </c>
       <c r="E21" t="n">
-        <v>27020.9682361485</v>
+        <v>27020.9463939988</v>
       </c>
       <c r="F21" t="n">
-        <v>29092.9117864571</v>
+        <v>29092.8730915513</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>20001</v>
       </c>
       <c r="I21" t="n">
-        <v>3471.9856428961</v>
+        <v>3471.98151225085</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>21829.3311676476</v>
+        <v>21829.3280240963</v>
       </c>
       <c r="C22" t="n">
-        <v>18873.8210532754</v>
+        <v>18873.8194944681</v>
       </c>
       <c r="D22" t="n">
-        <v>17462.8552363215</v>
+        <v>17462.8524241233</v>
       </c>
       <c r="E22" t="n">
-        <v>25205.6095993255</v>
+        <v>25205.5952115611</v>
       </c>
       <c r="F22" t="n">
-        <v>27181.4399107922</v>
+        <v>27181.4134070107</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>20125</v>
       </c>
       <c r="I22" t="n">
-        <v>1704.33116764763</v>
+        <v>1704.3280240963</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20960.613600725</v>
+        <v>20960.6128458894</v>
       </c>
       <c r="C23" t="n">
-        <v>18073.6649047402</v>
+        <v>18073.6638303513</v>
       </c>
       <c r="D23" t="n">
-        <v>16698.1054120699</v>
+        <v>16698.1025596374</v>
       </c>
       <c r="E23" t="n">
-        <v>24266.7076294566</v>
+        <v>24266.6989012937</v>
       </c>
       <c r="F23" t="n">
-        <v>26205.0075494889</v>
+        <v>26204.9890572837</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>19157</v>
       </c>
       <c r="I23" t="n">
-        <v>1803.61360072498</v>
+        <v>1803.61284588945</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23221.0932916328</v>
+        <v>23221.0882133219</v>
       </c>
       <c r="C24" t="n">
-        <v>20002.9178185731</v>
+        <v>20002.9176088576</v>
       </c>
       <c r="D24" t="n">
-        <v>18470.6298672723</v>
+        <v>18470.6291659192</v>
       </c>
       <c r="E24" t="n">
-        <v>26909.8372598491</v>
+        <v>26909.8141986662</v>
       </c>
       <c r="F24" t="n">
-        <v>29073.9286953317</v>
+        <v>29073.8880328596</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>19858</v>
       </c>
       <c r="I24" t="n">
-        <v>3363.09329163277</v>
+        <v>3363.08821332192</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>22524.9587850617</v>
+        <v>22524.9521479961</v>
       </c>
       <c r="C25" t="n">
-        <v>19353.9626087269</v>
+        <v>19353.9594338886</v>
       </c>
       <c r="D25" t="n">
-        <v>17846.8900889346</v>
+        <v>17846.8860651992</v>
       </c>
       <c r="E25" t="n">
-        <v>26168.0392039561</v>
+        <v>26168.0170399304</v>
       </c>
       <c r="F25" t="n">
-        <v>28309.009557334</v>
+        <v>28308.9715451387</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>20895</v>
       </c>
       <c r="I25" t="n">
-        <v>1629.95878506168</v>
+        <v>1629.95214799612</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23095.3503519242</v>
+        <v>23095.3456440901</v>
       </c>
       <c r="C26" t="n">
-        <v>19771.593377296</v>
+        <v>19771.5929198803</v>
       </c>
       <c r="D26" t="n">
-        <v>18196.0592538434</v>
+        <v>18196.0579259065</v>
       </c>
       <c r="E26" t="n">
-        <v>26926.651611544</v>
+        <v>26926.6288098518</v>
       </c>
       <c r="F26" t="n">
-        <v>29183.7915130934</v>
+        <v>29183.7504250347</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>18704</v>
       </c>
       <c r="I26" t="n">
-        <v>4391.35035192417</v>
+        <v>4391.34564409007</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>19193.2012922532</v>
+        <v>19193.2021255495</v>
       </c>
       <c r="C27" t="n">
-        <v>16360.6895533156</v>
+        <v>16360.6869353672</v>
       </c>
       <c r="D27" t="n">
-        <v>15022.1426842098</v>
+        <v>15022.1376344848</v>
       </c>
       <c r="E27" t="n">
-        <v>22470.9879190343</v>
+        <v>22470.9863727399</v>
       </c>
       <c r="F27" t="n">
-        <v>24407.6145295369</v>
+        <v>24407.6071000012</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>16733</v>
       </c>
       <c r="I27" t="n">
-        <v>2460.20129225323</v>
+        <v>2460.20212554949</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>27239.94437072</v>
+        <v>27239.9235425818</v>
       </c>
       <c r="C28" t="n">
-        <v>23263.1603639791</v>
+        <v>23263.158737945</v>
       </c>
       <c r="D28" t="n">
-        <v>21381.361013859</v>
+        <v>21381.3629351319</v>
       </c>
       <c r="E28" t="n">
-        <v>31834.121247717</v>
+        <v>31834.0557912337</v>
       </c>
       <c r="F28" t="n">
-        <v>34545.1243265382</v>
+        <v>34545.0204147855</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>21722</v>
       </c>
       <c r="I28" t="n">
-        <v>5517.94437072</v>
+        <v>5517.92354258177</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>25093.3737043863</v>
+        <v>25093.3614025446</v>
       </c>
       <c r="C29" t="n">
-        <v>21348.6874063702</v>
+        <v>21348.6858673886</v>
       </c>
       <c r="D29" t="n">
-        <v>19581.5431671313</v>
+        <v>19581.542409092</v>
       </c>
       <c r="E29" t="n">
-        <v>29434.3766113135</v>
+        <v>29434.3331996773</v>
       </c>
       <c r="F29" t="n">
-        <v>32002.5361564743</v>
+        <v>32002.4638888228</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>17712</v>
       </c>
       <c r="I29" t="n">
-        <v>7381.3737043863</v>
+        <v>7381.36140254461</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>24980.1889770591</v>
+        <v>24980.1771295195</v>
       </c>
       <c r="C30" t="n">
-        <v>21201.0364434823</v>
+        <v>21201.0349550499</v>
       </c>
       <c r="D30" t="n">
-        <v>19420.7237370096</v>
+        <v>19420.7228156672</v>
       </c>
       <c r="E30" t="n">
-        <v>29370.782737899</v>
+        <v>29370.73990945</v>
       </c>
       <c r="F30" t="n">
-        <v>31972.5060933189</v>
+        <v>31972.4342105786</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>18720</v>
       </c>
       <c r="I30" t="n">
-        <v>6260.18897705915</v>
+        <v>6260.17712951949</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>23432.282679137</v>
+        <v>23432.2752125297</v>
       </c>
       <c r="C31" t="n">
-        <v>19823.189681451</v>
+        <v>19823.1874819815</v>
       </c>
       <c r="D31" t="n">
-        <v>18126.92956628</v>
+        <v>18126.9264540792</v>
       </c>
       <c r="E31" t="n">
-        <v>27637.611874786</v>
+        <v>27637.582182917</v>
       </c>
       <c r="F31" t="n">
-        <v>30134.9605682545</v>
+        <v>30134.9082306357</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>20925</v>
       </c>
       <c r="I31" t="n">
-        <v>2507.28267913698</v>
+        <v>2507.27521252966</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>25058.2431866023</v>
+        <v>25058.2333278558</v>
       </c>
       <c r="C32" t="n">
-        <v>21164.6947163973</v>
+        <v>21164.6951621601</v>
       </c>
       <c r="D32" t="n">
-        <v>19336.8534843639</v>
+        <v>19336.8542240813</v>
       </c>
       <c r="E32" t="n">
-        <v>29601.6423203444</v>
+        <v>29601.6001449608</v>
       </c>
       <c r="F32" t="n">
-        <v>32302.6646535856</v>
+        <v>32302.5917237082</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>21867</v>
       </c>
       <c r="I32" t="n">
-        <v>3191.24318660232</v>
+        <v>3191.23332785576</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>24583.3960236192</v>
+        <v>24583.3872807492</v>
       </c>
       <c r="C33" t="n">
-        <v>20709.7218968362</v>
+        <v>20709.7218012189</v>
       </c>
       <c r="D33" t="n">
-        <v>18894.6059208111</v>
+        <v>18894.6055780657</v>
       </c>
       <c r="E33" t="n">
-        <v>29114.2802604019</v>
+        <v>29114.2416595053</v>
       </c>
       <c r="F33" t="n">
-        <v>31812.5610663827</v>
+        <v>31812.4932953737</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>21891</v>
       </c>
       <c r="I33" t="n">
-        <v>2692.39602361921</v>
+        <v>2692.38728074916</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>22644.2175321304</v>
+        <v>22644.2122122235</v>
       </c>
       <c r="C34" t="n">
-        <v>19010.1044112018</v>
+        <v>19010.1018551092</v>
       </c>
       <c r="D34" t="n">
-        <v>17311.4796234814</v>
+        <v>17311.475330058</v>
       </c>
       <c r="E34" t="n">
-        <v>26908.2821265808</v>
+        <v>26908.2579017856</v>
       </c>
       <c r="F34" t="n">
-        <v>29453.5649817192</v>
+        <v>29453.5199195544</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>18740</v>
       </c>
       <c r="I34" t="n">
-        <v>3904.21753213037</v>
+        <v>3904.21221222348</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21825.0203336636</v>
+        <v>21825.0170540095</v>
       </c>
       <c r="C35" t="n">
-        <v>18269.6850031021</v>
+        <v>18269.6822250837</v>
       </c>
       <c r="D35" t="n">
-        <v>16611.3211549679</v>
+        <v>16611.3161000411</v>
       </c>
       <c r="E35" t="n">
-        <v>26007.562532025</v>
+        <v>26007.5445279842</v>
       </c>
       <c r="F35" t="n">
-        <v>28508.9998148007</v>
+        <v>28508.9640779462</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>16020</v>
       </c>
       <c r="I35" t="n">
-        <v>5805.02033366365</v>
+        <v>5805.01705400949</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23666.3272420341</v>
+        <v>23666.3193494475</v>
       </c>
       <c r="C36" t="n">
-        <v>19788.6162276954</v>
+        <v>19788.6140497121</v>
       </c>
       <c r="D36" t="n">
-        <v>17981.3566404254</v>
+        <v>17981.3532724272</v>
       </c>
       <c r="E36" t="n">
-        <v>28232.8070348947</v>
+        <v>28232.7733409457</v>
       </c>
       <c r="F36" t="n">
-        <v>30965.9353065836</v>
+        <v>30965.874774941</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>15057</v>
       </c>
       <c r="I36" t="n">
-        <v>8609.32724203409</v>
+        <v>8609.31934944745</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>22976.7357413847</v>
+        <v>22976.7281095702</v>
       </c>
       <c r="C37" t="n">
-        <v>19160.5993332484</v>
+        <v>19160.5954567213</v>
       </c>
       <c r="D37" t="n">
-        <v>17385.4643790096</v>
+        <v>17385.4588465392</v>
       </c>
       <c r="E37" t="n">
-        <v>27481.6362134419</v>
+        <v>27481.6063606895</v>
       </c>
       <c r="F37" t="n">
-        <v>30182.7422236045</v>
+        <v>30182.6881576207</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11050</v>
       </c>
       <c r="I37" t="n">
-        <v>11926.7357413847</v>
+        <v>11926.7281095702</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>23650.1575752535</v>
+        <v>23650.1493916089</v>
       </c>
       <c r="C38" t="n">
-        <v>19531.2810818505</v>
+        <v>19531.2782198622</v>
       </c>
       <c r="D38" t="n">
-        <v>17628.6988980549</v>
+        <v>17628.6943459791</v>
       </c>
       <c r="E38" t="n">
-        <v>28555.4900806493</v>
+        <v>28555.4537673673</v>
       </c>
       <c r="F38" t="n">
-        <v>31515.8456217974</v>
+        <v>31515.778984387</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>12785</v>
       </c>
       <c r="I38" t="n">
-        <v>10865.1575752535</v>
+        <v>10865.1493916089</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>20139.8441339634</v>
+        <v>20139.844685582</v>
       </c>
       <c r="C39" t="n">
-        <v>16563.2084895383</v>
+        <v>16563.205030318</v>
       </c>
       <c r="D39" t="n">
-        <v>14916.0471531267</v>
+        <v>14916.0404394225</v>
       </c>
       <c r="E39" t="n">
-        <v>24415.4894734553</v>
+        <v>24415.4826364681</v>
       </c>
       <c r="F39" t="n">
-        <v>27002.9935529138</v>
+        <v>27002.9734774131</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>20580</v>
       </c>
       <c r="I39" t="n">
-        <v>-440.155866036584</v>
+        <v>-440.155314417985</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>28268.5726472297</v>
+        <v>28268.5435580089</v>
       </c>
       <c r="C40" t="n">
-        <v>23278.8616448627</v>
+        <v>23278.8584697029</v>
       </c>
       <c r="D40" t="n">
-        <v>20978.7626960376</v>
+        <v>20978.7630584813</v>
       </c>
       <c r="E40" t="n">
-        <v>34226.398558673</v>
+        <v>34226.3007271989</v>
       </c>
       <c r="F40" t="n">
-        <v>37828.7735336188</v>
+        <v>37828.6127332582</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>23625</v>
       </c>
       <c r="I40" t="n">
-        <v>4643.5726472297</v>
+        <v>4643.54355800893</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>25803.3470571867</v>
+        <v>25803.3283969884</v>
       </c>
       <c r="C41" t="n">
-        <v>21116.4762889787</v>
+        <v>21116.4716737025</v>
       </c>
       <c r="D41" t="n">
-        <v>18965.6870925912</v>
+        <v>18965.6825694223</v>
       </c>
       <c r="E41" t="n">
-        <v>31431.3089086811</v>
+        <v>31431.2420226778</v>
       </c>
       <c r="F41" t="n">
-        <v>34848.4006766911</v>
+        <v>34848.2858877699</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>21597</v>
       </c>
       <c r="I41" t="n">
-        <v>4206.34705718673</v>
+        <v>4206.32839698843</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>25701.7045125861</v>
+        <v>25701.6874779955</v>
       </c>
       <c r="C42" t="n">
-        <v>20962.5038405532</v>
+        <v>20962.5001675084</v>
       </c>
       <c r="D42" t="n">
-        <v>18792.9858893671</v>
+        <v>18792.9819457012</v>
       </c>
       <c r="E42" t="n">
-        <v>31409.8951367741</v>
+        <v>31409.8299261236</v>
       </c>
       <c r="F42" t="n">
-        <v>34883.4706614487</v>
+        <v>34883.3569365003</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>20963</v>
       </c>
       <c r="I42" t="n">
-        <v>4738.7045125861</v>
+        <v>4738.68747799549</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>24153.4909468717</v>
+        <v>24153.479921937</v>
       </c>
       <c r="C43" t="n">
-        <v>19612.1399508958</v>
+        <v>19612.1357886385</v>
       </c>
       <c r="D43" t="n">
-        <v>17539.8746003169</v>
+        <v>17539.8685451533</v>
       </c>
       <c r="E43" t="n">
-        <v>29645.4845772224</v>
+        <v>29645.4375121503</v>
       </c>
       <c r="F43" t="n">
-        <v>32997.4002162589</v>
+        <v>32997.313839321</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>19664</v>
       </c>
       <c r="I43" t="n">
-        <v>4489.49094687174</v>
+        <v>4489.47992193697</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>25297.6126058833</v>
+        <v>25297.597055565</v>
       </c>
       <c r="C44" t="n">
-        <v>20474.6824950672</v>
+        <v>20474.6784681749</v>
       </c>
       <c r="D44" t="n">
-        <v>18279.0766079871</v>
+        <v>18279.0715639652</v>
       </c>
       <c r="E44" t="n">
-        <v>31147.2521768822</v>
+        <v>31147.1896142079</v>
       </c>
       <c r="F44" t="n">
-        <v>34725.1284964235</v>
+        <v>34725.0169826675</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>22326</v>
       </c>
       <c r="I44" t="n">
-        <v>2971.61260588327</v>
+        <v>2971.59705556498</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>24964.5817322044</v>
+        <v>24964.5686732656</v>
       </c>
       <c r="C45" t="n">
-        <v>20131.3567517675</v>
+        <v>20131.3535005619</v>
       </c>
       <c r="D45" t="n">
-        <v>17936.8740470154</v>
+        <v>17936.8692098495</v>
       </c>
       <c r="E45" t="n">
-        <v>30846.1319330798</v>
+        <v>30846.0740558067</v>
       </c>
       <c r="F45" t="n">
-        <v>34452.2528455126</v>
+        <v>34452.1471099962</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>23214</v>
       </c>
       <c r="I45" t="n">
-        <v>1750.58173220441</v>
+        <v>1750.5686732656</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>23291.0033519556</v>
+        <v>23290.9951523503</v>
       </c>
       <c r="C46" t="n">
-        <v>18695.0674302066</v>
+        <v>18695.0625969792</v>
       </c>
       <c r="D46" t="n">
-        <v>16615.2940394952</v>
+        <v>16615.2863147118</v>
       </c>
       <c r="E46" t="n">
-        <v>28907.2379929446</v>
+        <v>28907.1981919655</v>
       </c>
       <c r="F46" t="n">
-        <v>32361.2440115583</v>
+        <v>32361.1668031415</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>20022</v>
       </c>
       <c r="I46" t="n">
-        <v>3269.00335195559</v>
+        <v>3268.99515235026</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>22245.6738046847</v>
+        <v>22245.6684982393</v>
       </c>
       <c r="C47" t="n">
-        <v>17777.5230841702</v>
+        <v>17777.5176250125</v>
       </c>
       <c r="D47" t="n">
-        <v>15762.0086423641</v>
+        <v>15761.9997130466</v>
       </c>
       <c r="E47" t="n">
-        <v>27727.5284136515</v>
+        <v>27727.4989622922</v>
       </c>
       <c r="F47" t="n">
-        <v>31108.7151400465</v>
+        <v>31108.6541245696</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>19466</v>
       </c>
       <c r="I47" t="n">
-        <v>2779.67380468473</v>
+        <v>2779.66849823931</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>24446.6660581818</v>
+        <v>24446.6550068502</v>
       </c>
       <c r="C48" t="n">
-        <v>19503.4003770671</v>
+        <v>19503.3967043338</v>
       </c>
       <c r="D48" t="n">
-        <v>17276.3000124744</v>
+        <v>17276.2938785184</v>
       </c>
       <c r="E48" t="n">
-        <v>30520.7106253894</v>
+        <v>30520.6564389121</v>
       </c>
       <c r="F48" t="n">
-        <v>34271.3479276235</v>
+        <v>34271.2453173869</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>20280</v>
       </c>
       <c r="I48" t="n">
-        <v>4166.66605818185</v>
+        <v>4166.65500685015</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>23974.6473997531</v>
+        <v>23974.6360092799</v>
       </c>
       <c r="C49" t="n">
-        <v>19056.7482773621</v>
+        <v>19056.742647822</v>
       </c>
       <c r="D49" t="n">
-        <v>16846.9562489377</v>
+        <v>16846.9478675903</v>
       </c>
       <c r="E49" t="n">
-        <v>30037.5866058978</v>
+        <v>30037.5350239585</v>
       </c>
       <c r="F49" t="n">
-        <v>33790.4410327976</v>
+        <v>33790.3429943778</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>18085</v>
       </c>
       <c r="I49" t="n">
-        <v>5889.64739975309</v>
+        <v>5889.63600927992</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
